--- a/Sub-Heads_Contacts.xlsx
+++ b/Sub-Heads_Contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="172">
   <si>
     <t>https://drive.google.com/file/d/1v_coChDCYCD6bJm_ElILeeLAt_QvDIN9/view?usp=drivesdk</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>suryadeep</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1kxQ4kU12FkF-eZlYSGL5qYW2YQW4YT7o/view?usp=sharing</t>
   </si>
   <si>
     <t>linkedin.com/in/shashwat-shukla-4a6a10198</t>
@@ -527,6 +524,15 @@
   <si>
     <t>https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing</t>
   </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DMpT2gdZsBh0PJyynDT2Aaq2bNtCtYLZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sHlHJe0DRMRSQmxt5W5eTRYMj6krN65r/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>shashwat shukla</t>
+  </si>
 </sst>
 </file>
 
@@ -551,6 +557,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -928,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -946,25 +953,25 @@
   <sheetData>
     <row r="1" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="2"/>
@@ -989,25 +996,25 @@
     </row>
     <row r="2" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="4">
         <v>8118822309</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1032,31 +1039,31 @@
     </row>
     <row r="3" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4">
         <v>7869027425</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1079,25 +1086,25 @@
     </row>
     <row r="4" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="4">
         <v>8811869007</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1122,23 +1129,23 @@
     </row>
     <row r="5" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="4">
         <v>9660453903</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1163,22 +1170,22 @@
     </row>
     <row r="6" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="4">
         <v>9358361594</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1204,25 +1211,25 @@
     </row>
     <row r="7" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="4">
         <v>9502834599</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1247,33 +1254,35 @@
     </row>
     <row r="8" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="4">
         <v>9500327733</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1294,25 +1303,25 @@
     </row>
     <row r="9" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="4">
         <v>9961751470</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1337,25 +1346,25 @@
     </row>
     <row r="10" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="4">
         <v>9030991777</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1380,25 +1389,25 @@
     </row>
     <row r="11" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="4">
         <v>8590409920</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1423,25 +1432,25 @@
     </row>
     <row r="12" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4">
         <v>7076195222</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1466,25 +1475,25 @@
     </row>
     <row r="13" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4">
         <v>9550198600</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1509,25 +1518,25 @@
     </row>
     <row r="14" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="4">
         <v>7034877530</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1552,23 +1561,23 @@
     </row>
     <row r="15" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4">
         <v>6381729525</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1593,25 +1602,25 @@
     </row>
     <row r="16" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="4">
         <v>8462890029</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1636,25 +1645,25 @@
     </row>
     <row r="17" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="4">
         <v>9390180656</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1679,25 +1688,25 @@
     </row>
     <row r="18" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4">
         <v>8368297396</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1722,25 +1731,25 @@
     </row>
     <row r="19" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="4">
         <v>7584837111</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1765,25 +1774,25 @@
     </row>
     <row r="20" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1808,25 +1817,25 @@
     </row>
     <row r="21" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4">
         <v>9693468208</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1851,25 +1860,25 @@
     </row>
     <row r="22" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4">
         <v>7479216228</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>52</v>
+      <c r="G22" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>40</v>
@@ -1896,7 +1905,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1918,8 +1927,12 @@
       <c r="G23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2006,7 +2019,7 @@
         <v>35</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2182,7 +2195,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -30448,38 +30461,36 @@
     <hyperlink ref="G21" r:id="rId52"/>
     <hyperlink ref="E22" r:id="rId53"/>
     <hyperlink ref="F22" r:id="rId54" display="http://linkedin.com/in/shashwat-shukla-4a6a10198"/>
-    <hyperlink ref="G22" r:id="rId55"/>
-    <hyperlink ref="E23" r:id="rId56"/>
-    <hyperlink ref="F23" r:id="rId57"/>
-    <hyperlink ref="G23" r:id="rId58"/>
-    <hyperlink ref="E24" r:id="rId59"/>
-    <hyperlink ref="F24" r:id="rId60"/>
-    <hyperlink ref="E25" r:id="rId61"/>
-    <hyperlink ref="F25" r:id="rId62"/>
-    <hyperlink ref="E26" r:id="rId63"/>
-    <hyperlink ref="F26" r:id="rId64"/>
-    <hyperlink ref="E27" r:id="rId65"/>
-    <hyperlink ref="F27" r:id="rId66"/>
-    <hyperlink ref="G27" r:id="rId67"/>
-    <hyperlink ref="E28" r:id="rId68"/>
-    <hyperlink ref="F28" r:id="rId69"/>
-    <hyperlink ref="E29" r:id="rId70"/>
-    <hyperlink ref="F29" r:id="rId71"/>
-    <hyperlink ref="E30" r:id="rId72"/>
-    <hyperlink ref="F30" r:id="rId73"/>
-    <hyperlink ref="G30" r:id="rId74"/>
-    <hyperlink ref="E31" r:id="rId75"/>
-    <hyperlink ref="F31" r:id="rId76"/>
-    <hyperlink ref="G31" r:id="rId77"/>
-    <hyperlink ref="G8" r:id="rId78"/>
-    <hyperlink ref="G24" r:id="rId79"/>
-    <hyperlink ref="G28" r:id="rId80"/>
-    <hyperlink ref="G12" r:id="rId81"/>
-    <hyperlink ref="G13:G16" r:id="rId82" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
-    <hyperlink ref="G19" r:id="rId83"/>
-    <hyperlink ref="G20" r:id="rId84"/>
-    <hyperlink ref="G25" r:id="rId85"/>
-    <hyperlink ref="G29" r:id="rId86"/>
+    <hyperlink ref="E23" r:id="rId55"/>
+    <hyperlink ref="F23" r:id="rId56"/>
+    <hyperlink ref="G23" r:id="rId57"/>
+    <hyperlink ref="E24" r:id="rId58"/>
+    <hyperlink ref="F24" r:id="rId59"/>
+    <hyperlink ref="E25" r:id="rId60"/>
+    <hyperlink ref="F25" r:id="rId61"/>
+    <hyperlink ref="E26" r:id="rId62"/>
+    <hyperlink ref="F26" r:id="rId63"/>
+    <hyperlink ref="E27" r:id="rId64"/>
+    <hyperlink ref="F27" r:id="rId65"/>
+    <hyperlink ref="G27" r:id="rId66"/>
+    <hyperlink ref="E28" r:id="rId67"/>
+    <hyperlink ref="F28" r:id="rId68"/>
+    <hyperlink ref="E29" r:id="rId69"/>
+    <hyperlink ref="F29" r:id="rId70"/>
+    <hyperlink ref="E30" r:id="rId71"/>
+    <hyperlink ref="F30" r:id="rId72"/>
+    <hyperlink ref="G30" r:id="rId73"/>
+    <hyperlink ref="E31" r:id="rId74"/>
+    <hyperlink ref="F31" r:id="rId75"/>
+    <hyperlink ref="G31" r:id="rId76"/>
+    <hyperlink ref="G24" r:id="rId77"/>
+    <hyperlink ref="G28" r:id="rId78"/>
+    <hyperlink ref="G12" r:id="rId79"/>
+    <hyperlink ref="G13:G16" r:id="rId80" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
+    <hyperlink ref="G19" r:id="rId81"/>
+    <hyperlink ref="G20" r:id="rId82"/>
+    <hyperlink ref="G25" r:id="rId83"/>
+    <hyperlink ref="G29" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sub-Heads_Contacts.xlsx
+++ b/Sub-Heads_Contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="169">
   <si>
     <t>https://drive.google.com/file/d/1v_coChDCYCD6bJm_ElILeeLAt_QvDIN9/view?usp=drivesdk</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>varunlahoti2000@gmail.com</t>
-  </si>
-  <si>
-    <t>Agricultural and food engineering</t>
   </si>
   <si>
     <t>Varun Lahoti</t>
@@ -163,9 +160,6 @@
   </si>
   <si>
     <t>shrinivaskhistesk@gmail.com</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
   </si>
   <si>
     <t>Shrinivas Khiste</t>
@@ -421,9 +415,6 @@
   </si>
   <si>
     <t>sindhujeripothula@gmail.com</t>
-  </si>
-  <si>
-    <t>Aerospace engineering</t>
   </si>
   <si>
     <t>Jeripothula Sindhu</t>
@@ -935,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -953,25 +944,25 @@
   <sheetData>
     <row r="1" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="2"/>
@@ -996,25 +987,25 @@
     </row>
     <row r="2" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D2" s="4">
         <v>8118822309</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1039,31 +1030,31 @@
     </row>
     <row r="3" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D3" s="4">
         <v>7869027425</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1086,25 +1077,25 @@
     </row>
     <row r="4" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D4" s="4">
         <v>8811869007</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1129,23 +1120,23 @@
     </row>
     <row r="5" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="4">
         <v>9660453903</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1170,22 +1161,22 @@
     </row>
     <row r="6" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6" s="4">
         <v>9358361594</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1211,25 +1202,25 @@
     </row>
     <row r="7" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="4">
         <v>9502834599</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1254,34 +1245,34 @@
     </row>
     <row r="8" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="4">
         <v>9500327733</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1303,25 +1294,25 @@
     </row>
     <row r="9" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9" s="4">
         <v>9961751470</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1346,25 +1337,25 @@
     </row>
     <row r="10" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="4">
         <v>9030991777</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1389,25 +1380,25 @@
     </row>
     <row r="11" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="4">
         <v>8590409920</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1432,25 +1423,25 @@
     </row>
     <row r="12" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" s="4">
         <v>7076195222</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1475,25 +1466,25 @@
     </row>
     <row r="13" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="4">
         <v>9550198600</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1518,25 +1509,25 @@
     </row>
     <row r="14" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="4">
         <v>7034877530</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1561,23 +1552,25 @@
     </row>
     <row r="15" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="4">
         <v>6381729525</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1602,25 +1595,25 @@
     </row>
     <row r="16" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="4">
         <v>8462890029</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1645,25 +1638,25 @@
     </row>
     <row r="17" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="4">
         <v>9390180656</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1688,25 +1681,25 @@
     </row>
     <row r="18" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4">
         <v>8368297396</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1731,25 +1724,25 @@
     </row>
     <row r="19" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4">
         <v>7584837111</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1774,25 +1767,25 @@
     </row>
     <row r="20" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1817,25 +1810,25 @@
     </row>
     <row r="21" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4">
         <v>9693468208</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1860,31 +1853,31 @@
     </row>
     <row r="22" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="4">
         <v>7479216228</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1907,31 +1900,31 @@
     </row>
     <row r="23" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="4">
         <v>9284029278</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1954,31 +1947,31 @@
     </row>
     <row r="24" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="4">
         <v>8698792882</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -2001,25 +1994,25 @@
     </row>
     <row r="25" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4">
         <v>7479175747</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2044,31 +2037,31 @@
     </row>
     <row r="26" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="4">
         <v>9352025031</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -2091,25 +2084,25 @@
     </row>
     <row r="27" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="4">
         <v>9150660724</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2134,10 +2127,10 @@
     </row>
     <row r="28" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>19</v>
@@ -2195,7 +2188,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>

--- a/Sub-Heads_Contacts.xlsx
+++ b/Sub-Heads_Contacts.xlsx
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Sub-Heads_Contacts.xlsx
+++ b/Sub-Heads_Contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="170">
   <si>
     <t>https://drive.google.com/file/d/1v_coChDCYCD6bJm_ElILeeLAt_QvDIN9/view?usp=drivesdk</t>
   </si>
@@ -405,9 +405,6 @@
     <t>Jeyasiona MJ</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ee6CKuGzCfZsSDWgB1YI8QFvyEq9Ffy9/view?usp=drivesdk</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/jeripothula-sindhu-79a3421b4/</t>
   </si>
   <si>
@@ -523,6 +520,12 @@
   </si>
   <si>
     <t>shashwat shukla</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14KCsia6iTkuEJT0em7oSk658MnznFSfN/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18YXRjYxyNK0-9_1Jfh-ctXQXr8OHLbjZ/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -926,15 +929,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="51.42578125" style="1" customWidth="1"/>
@@ -944,25 +947,25 @@
   <sheetData>
     <row r="1" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="2"/>
@@ -987,25 +990,25 @@
     </row>
     <row r="2" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="4">
         <v>8118822309</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1030,31 +1033,31 @@
     </row>
     <row r="3" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="4">
         <v>7869027425</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1077,25 +1080,25 @@
     </row>
     <row r="4" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="4">
         <v>8811869007</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1120,23 +1123,23 @@
     </row>
     <row r="5" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="4">
         <v>9660453903</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1161,22 +1164,22 @@
     </row>
     <row r="6" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="4">
         <v>9358361594</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1200,29 +1203,31 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="4">
         <v>9502834599</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1263,7 +1268,7 @@
         <v>124</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>123</v>
@@ -1272,7 +1277,7 @@
         <v>122</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1441,7 +1446,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1484,7 +1489,7 @@
         <v>96</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1527,7 +1532,7 @@
         <v>91</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1570,7 +1575,7 @@
         <v>87</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1593,7 +1598,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -1612,10 +1617,12 @@
       <c r="F16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>165</v>
+      <c r="G16" s="2" t="s">
+        <v>168</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1636,7 +1643,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>81</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>66</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1785,7 +1792,7 @@
         <v>61</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1871,7 +1878,7 @@
         <v>50</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>39</v>
@@ -1921,10 +1928,10 @@
         <v>44</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2012,7 +2019,7 @@
         <v>34</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2188,7 +2195,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -30417,75 +30424,74 @@
     <hyperlink ref="F6" r:id="rId15"/>
     <hyperlink ref="E7" r:id="rId16"/>
     <hyperlink ref="F7" r:id="rId17"/>
-    <hyperlink ref="G7" r:id="rId18"/>
-    <hyperlink ref="E8" r:id="rId19"/>
-    <hyperlink ref="F8" r:id="rId20"/>
-    <hyperlink ref="E9" r:id="rId21"/>
-    <hyperlink ref="F9" r:id="rId22"/>
-    <hyperlink ref="G9" r:id="rId23"/>
-    <hyperlink ref="E10" r:id="rId24"/>
-    <hyperlink ref="F10" r:id="rId25"/>
-    <hyperlink ref="G10" r:id="rId26"/>
-    <hyperlink ref="E11" r:id="rId27"/>
-    <hyperlink ref="F11" r:id="rId28"/>
-    <hyperlink ref="G11" r:id="rId29"/>
-    <hyperlink ref="E12" r:id="rId30"/>
-    <hyperlink ref="F12" r:id="rId31"/>
-    <hyperlink ref="E13" r:id="rId32"/>
-    <hyperlink ref="F13" r:id="rId33"/>
-    <hyperlink ref="E14" r:id="rId34"/>
-    <hyperlink ref="F14" r:id="rId35"/>
-    <hyperlink ref="E15" r:id="rId36"/>
-    <hyperlink ref="F15" r:id="rId37"/>
-    <hyperlink ref="E16" r:id="rId38"/>
-    <hyperlink ref="F16" r:id="rId39"/>
-    <hyperlink ref="E17" r:id="rId40"/>
-    <hyperlink ref="F17" r:id="rId41"/>
-    <hyperlink ref="G17" r:id="rId42"/>
-    <hyperlink ref="E18" r:id="rId43"/>
-    <hyperlink ref="F18" r:id="rId44"/>
-    <hyperlink ref="G18" r:id="rId45"/>
-    <hyperlink ref="E19" r:id="rId46"/>
-    <hyperlink ref="F19" r:id="rId47"/>
-    <hyperlink ref="E20" r:id="rId48"/>
-    <hyperlink ref="F20" r:id="rId49"/>
-    <hyperlink ref="E21" r:id="rId50"/>
-    <hyperlink ref="F21" r:id="rId51"/>
-    <hyperlink ref="G21" r:id="rId52"/>
-    <hyperlink ref="E22" r:id="rId53"/>
-    <hyperlink ref="F22" r:id="rId54" display="http://linkedin.com/in/shashwat-shukla-4a6a10198"/>
-    <hyperlink ref="E23" r:id="rId55"/>
-    <hyperlink ref="F23" r:id="rId56"/>
-    <hyperlink ref="G23" r:id="rId57"/>
-    <hyperlink ref="E24" r:id="rId58"/>
-    <hyperlink ref="F24" r:id="rId59"/>
-    <hyperlink ref="E25" r:id="rId60"/>
-    <hyperlink ref="F25" r:id="rId61"/>
-    <hyperlink ref="E26" r:id="rId62"/>
-    <hyperlink ref="F26" r:id="rId63"/>
-    <hyperlink ref="E27" r:id="rId64"/>
-    <hyperlink ref="F27" r:id="rId65"/>
-    <hyperlink ref="G27" r:id="rId66"/>
-    <hyperlink ref="E28" r:id="rId67"/>
-    <hyperlink ref="F28" r:id="rId68"/>
-    <hyperlink ref="E29" r:id="rId69"/>
-    <hyperlink ref="F29" r:id="rId70"/>
-    <hyperlink ref="E30" r:id="rId71"/>
-    <hyperlink ref="F30" r:id="rId72"/>
-    <hyperlink ref="G30" r:id="rId73"/>
-    <hyperlink ref="E31" r:id="rId74"/>
-    <hyperlink ref="F31" r:id="rId75"/>
-    <hyperlink ref="G31" r:id="rId76"/>
-    <hyperlink ref="G24" r:id="rId77"/>
-    <hyperlink ref="G28" r:id="rId78"/>
-    <hyperlink ref="G12" r:id="rId79"/>
-    <hyperlink ref="G13:G16" r:id="rId80" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
-    <hyperlink ref="G19" r:id="rId81"/>
-    <hyperlink ref="G20" r:id="rId82"/>
-    <hyperlink ref="G25" r:id="rId83"/>
-    <hyperlink ref="G29" r:id="rId84"/>
+    <hyperlink ref="E8" r:id="rId18"/>
+    <hyperlink ref="F8" r:id="rId19"/>
+    <hyperlink ref="E9" r:id="rId20"/>
+    <hyperlink ref="F9" r:id="rId21"/>
+    <hyperlink ref="G9" r:id="rId22"/>
+    <hyperlink ref="E10" r:id="rId23"/>
+    <hyperlink ref="F10" r:id="rId24"/>
+    <hyperlink ref="G10" r:id="rId25"/>
+    <hyperlink ref="E11" r:id="rId26"/>
+    <hyperlink ref="F11" r:id="rId27"/>
+    <hyperlink ref="G11" r:id="rId28"/>
+    <hyperlink ref="E12" r:id="rId29"/>
+    <hyperlink ref="F12" r:id="rId30"/>
+    <hyperlink ref="E13" r:id="rId31"/>
+    <hyperlink ref="F13" r:id="rId32"/>
+    <hyperlink ref="E14" r:id="rId33"/>
+    <hyperlink ref="F14" r:id="rId34"/>
+    <hyperlink ref="E15" r:id="rId35"/>
+    <hyperlink ref="F15" r:id="rId36"/>
+    <hyperlink ref="E16" r:id="rId37"/>
+    <hyperlink ref="F16" r:id="rId38"/>
+    <hyperlink ref="E17" r:id="rId39"/>
+    <hyperlink ref="F17" r:id="rId40"/>
+    <hyperlink ref="G17" r:id="rId41"/>
+    <hyperlink ref="E18" r:id="rId42"/>
+    <hyperlink ref="F18" r:id="rId43"/>
+    <hyperlink ref="G18" r:id="rId44"/>
+    <hyperlink ref="E19" r:id="rId45"/>
+    <hyperlink ref="F19" r:id="rId46"/>
+    <hyperlink ref="E20" r:id="rId47"/>
+    <hyperlink ref="F20" r:id="rId48"/>
+    <hyperlink ref="E21" r:id="rId49"/>
+    <hyperlink ref="F21" r:id="rId50"/>
+    <hyperlink ref="G21" r:id="rId51"/>
+    <hyperlink ref="E22" r:id="rId52"/>
+    <hyperlink ref="F22" r:id="rId53" display="http://linkedin.com/in/shashwat-shukla-4a6a10198"/>
+    <hyperlink ref="E23" r:id="rId54"/>
+    <hyperlink ref="F23" r:id="rId55"/>
+    <hyperlink ref="G23" r:id="rId56"/>
+    <hyperlink ref="E24" r:id="rId57"/>
+    <hyperlink ref="F24" r:id="rId58"/>
+    <hyperlink ref="E25" r:id="rId59"/>
+    <hyperlink ref="F25" r:id="rId60"/>
+    <hyperlink ref="E26" r:id="rId61"/>
+    <hyperlink ref="F26" r:id="rId62"/>
+    <hyperlink ref="E27" r:id="rId63"/>
+    <hyperlink ref="F27" r:id="rId64"/>
+    <hyperlink ref="G27" r:id="rId65"/>
+    <hyperlink ref="E28" r:id="rId66"/>
+    <hyperlink ref="F28" r:id="rId67"/>
+    <hyperlink ref="E29" r:id="rId68"/>
+    <hyperlink ref="F29" r:id="rId69"/>
+    <hyperlink ref="E30" r:id="rId70"/>
+    <hyperlink ref="F30" r:id="rId71"/>
+    <hyperlink ref="G30" r:id="rId72"/>
+    <hyperlink ref="E31" r:id="rId73"/>
+    <hyperlink ref="F31" r:id="rId74"/>
+    <hyperlink ref="G31" r:id="rId75"/>
+    <hyperlink ref="G24" r:id="rId76"/>
+    <hyperlink ref="G28" r:id="rId77"/>
+    <hyperlink ref="G12" r:id="rId78"/>
+    <hyperlink ref="G19" r:id="rId79"/>
+    <hyperlink ref="G20" r:id="rId80"/>
+    <hyperlink ref="G25" r:id="rId81"/>
+    <hyperlink ref="G29" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId83"/>
 </worksheet>
 </file>
 
@@ -30493,7 +30499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Sub-Heads_Contacts.xlsx
+++ b/Sub-Heads_Contacts.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="171">
   <si>
     <t>https://drive.google.com/file/d/1v_coChDCYCD6bJm_ElILeeLAt_QvDIN9/view?usp=drivesdk</t>
   </si>
@@ -527,6 +528,9 @@
   <si>
     <t>https://drive.google.com/file/d/18YXRjYxyNK0-9_1Jfh-ctXQXr8OHLbjZ/view?usp=sharing</t>
   </si>
+  <si>
+    <t>sindhu</t>
+  </si>
 </sst>
 </file>
 
@@ -930,7 +934,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1232,9 @@
       <c r="H7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1340,7 +1346,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>116</v>
       </c>

--- a/Sub-Heads_Contacts.xlsx
+++ b/Sub-Heads_Contacts.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="188">
   <si>
     <t>https://drive.google.com/file/d/1v_coChDCYCD6bJm_ElILeeLAt_QvDIN9/view?usp=drivesdk</t>
   </si>
@@ -80,9 +79,6 @@
   </si>
   <si>
     <t>Varun Lahoti</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1vsiOAE9BsLtqs4Agho4joI_L-SyIsRvz/view?usp=sharing</t>
   </si>
   <si>
     <t>https://in.linkedin.com/in/varshitha-parthiban-6063991b4?trk</t>
@@ -531,12 +527,66 @@
   <si>
     <t>sindhu</t>
   </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RmFVUTcbAxOPJD-N_yjwOqcpiWn1gctA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Sampara Sai Charan</t>
+  </si>
+  <si>
+    <t>Electronics and Electrical Communication Engineering</t>
+  </si>
+  <si>
+    <t>saicharan. nssc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/saicharan.sampara.5</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sai-charan-sampara-a9a6591b4/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pQnaeOtnmpvjilV-0lrmAq4XdZEIA-z_/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>CVSS Aditya</t>
+  </si>
+  <si>
+    <t>Mechanical engineering</t>
+  </si>
+  <si>
+    <t>adityacvss.nssc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/aditya.potter.12</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aditya-chennapragada-5842941b2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WMfqINfhvs_gONaBVn3gStITenmpek77/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>varshitha</t>
+  </si>
+  <si>
+    <t>ratnesh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lbzWQ4ZcLXGJ_dpX_vJS4TP93rpghV00/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MbTP3vYQKIJKG2G-kJ1geJOT3p5diNmV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UFRdmbEmYGKloouSfOi9DTExjAS2wzBt/view?usp=drivesdk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +613,17 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -607,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,6 +690,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -931,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -951,25 +1015,25 @@
   <sheetData>
     <row r="1" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="2"/>
@@ -994,25 +1058,25 @@
     </row>
     <row r="2" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" s="4">
         <v>8118822309</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1037,31 +1101,31 @@
     </row>
     <row r="3" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="4">
         <v>7869027425</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1084,25 +1148,25 @@
     </row>
     <row r="4" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="4">
         <v>8811869007</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1127,23 +1191,23 @@
     </row>
     <row r="5" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="4">
         <v>9660453903</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1168,24 +1232,26 @@
     </row>
     <row r="6" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="4">
         <v>9358361594</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1207,84 +1273,58 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>132</v>
+    <row r="7" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>177</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>109</v>
+      <c r="B7" s="10" t="s">
+        <v>178</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="10">
+        <v>9542515223</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="4">
+      <c r="B8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="4">
         <v>9502834599</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="F8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-    </row>
-    <row r="8" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="4">
-        <v>9500327733</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1303,31 +1343,37 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9500327733</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>115</v>
+      <c r="J9" s="2" t="s">
+        <v>164</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="4">
-        <v>9961751470</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1346,27 +1392,27 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="6" t="s">
         <v>114</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" s="4">
-        <v>9030991777</v>
+        <v>9961751470</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1391,25 +1437,25 @@
     </row>
     <row r="11" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>108</v>
+      <c r="C11" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D11" s="4">
-        <v>8590409920</v>
+        <v>9030991777</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>105</v>
+      <c r="G11" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1434,25 +1480,25 @@
     </row>
     <row r="12" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D12" s="4">
-        <v>7076195222</v>
+        <v>8590409920</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>164</v>
+      <c r="G12" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1477,25 +1523,25 @@
     </row>
     <row r="13" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7076195222</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="4">
-        <v>9550198600</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="G13" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1520,25 +1566,25 @@
     </row>
     <row r="14" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9550198600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="4">
-        <v>7034877530</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G14" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1563,28 +1609,32 @@
     </row>
     <row r="15" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7034877530</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>109</v>
+      <c r="G15" s="11" t="s">
+        <v>186</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>89</v>
+      <c r="H15" s="11" t="s">
+        <v>186</v>
       </c>
-      <c r="D15" s="4">
-        <v>6381729525</v>
+      <c r="I15" s="2" t="s">
+        <v>94</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1604,31 +1654,29 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6381729525</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>85</v>
+      <c r="G16" s="8" t="s">
+        <v>163</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8462890029</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1649,30 +1697,34 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8462890029</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>59</v>
+      <c r="G17" s="2" t="s">
+        <v>167</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>80</v>
+      <c r="H17" s="2" t="s">
+        <v>167</v>
       </c>
-      <c r="D17" s="4">
-        <v>9390180656</v>
+      <c r="I17" s="2" t="s">
+        <v>184</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1692,27 +1744,27 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D18" s="4">
-        <v>8368297396</v>
+        <v>9390180656</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1737,25 +1789,25 @@
     </row>
     <row r="19" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4">
-        <v>7584837111</v>
+        <v>8368297396</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>164</v>
+      <c r="G19" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1778,70 +1830,50 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="10">
+        <v>6303637338</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7584837111</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-    </row>
-    <row r="21" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="4">
-        <v>9693468208</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>55</v>
+      <c r="G21" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1864,34 +1896,30 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
-      <c r="D22" s="4">
-        <v>7479216228</v>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>166</v>
+      <c r="G22" s="8" t="s">
+        <v>163</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1911,34 +1939,30 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4">
-        <v>9284029278</v>
+        <v>9693468208</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1958,33 +1982,33 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D24" s="4">
-        <v>8698792882</v>
+        <v>7479216228</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>39</v>
+      <c r="G24" s="2" t="s">
+        <v>165</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>28</v>
+      <c r="H24" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -2005,30 +2029,34 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D25" s="4">
-        <v>7479175747</v>
+        <v>9284029278</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>164</v>
+      <c r="G25" s="3" t="s">
+        <v>43</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -2048,33 +2076,33 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D26" s="4">
-        <v>9352025031</v>
+        <v>8698792882</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>28</v>
+      <c r="G26" s="3" t="s">
+        <v>38</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>16</v>
+      <c r="H26" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -2095,27 +2123,27 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D27" s="4">
-        <v>9150660724</v>
+        <v>7479175747</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>21</v>
+      <c r="G27" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2138,30 +2166,34 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D28" s="4">
-        <v>7479221800</v>
+        <v>9352025031</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2181,30 +2213,34 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D29" s="4">
-        <v>7580874791</v>
+        <v>9150660724</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>164</v>
+      <c r="G29" s="9" t="s">
+        <v>170</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -2226,25 +2262,25 @@
     </row>
     <row r="30" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D30" s="4">
-        <v>8490082541</v>
+        <v>7479221800</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2269,25 +2305,25 @@
     </row>
     <row r="31" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D31" s="4">
-        <v>9672030996</v>
+        <v>7580874791</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>0</v>
+      <c r="G31" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2311,13 +2347,27 @@
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8490082541</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2340,13 +2390,27 @@
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4">
+        <v>9672030996</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2368,35 +2432,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
@@ -30411,11 +30447,40 @@
       <c r="Z1000" s="2"/>
       <c r="AA1000" s="2"/>
     </row>
+    <row r="1001" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+      <c r="AA1001" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H22" r:id="rId1"/>
-    <hyperlink ref="H26" r:id="rId2"/>
-    <hyperlink ref="H8" r:id="rId3"/>
+    <hyperlink ref="H24" r:id="rId1"/>
+    <hyperlink ref="H28" r:id="rId2"/>
+    <hyperlink ref="H9" r:id="rId3"/>
     <hyperlink ref="E2" r:id="rId4"/>
     <hyperlink ref="F2" r:id="rId5"/>
     <hyperlink ref="G2" r:id="rId6"/>
@@ -30428,76 +30493,86 @@
     <hyperlink ref="G5" r:id="rId13"/>
     <hyperlink ref="E6" r:id="rId14"/>
     <hyperlink ref="F6" r:id="rId15"/>
-    <hyperlink ref="E7" r:id="rId16"/>
-    <hyperlink ref="F7" r:id="rId17"/>
-    <hyperlink ref="E8" r:id="rId18"/>
-    <hyperlink ref="F8" r:id="rId19"/>
-    <hyperlink ref="E9" r:id="rId20"/>
-    <hyperlink ref="F9" r:id="rId21"/>
-    <hyperlink ref="G9" r:id="rId22"/>
-    <hyperlink ref="E10" r:id="rId23"/>
-    <hyperlink ref="F10" r:id="rId24"/>
-    <hyperlink ref="G10" r:id="rId25"/>
-    <hyperlink ref="E11" r:id="rId26"/>
-    <hyperlink ref="F11" r:id="rId27"/>
-    <hyperlink ref="G11" r:id="rId28"/>
-    <hyperlink ref="E12" r:id="rId29"/>
-    <hyperlink ref="F12" r:id="rId30"/>
-    <hyperlink ref="E13" r:id="rId31"/>
-    <hyperlink ref="F13" r:id="rId32"/>
-    <hyperlink ref="E14" r:id="rId33"/>
-    <hyperlink ref="F14" r:id="rId34"/>
-    <hyperlink ref="E15" r:id="rId35"/>
-    <hyperlink ref="F15" r:id="rId36"/>
-    <hyperlink ref="E16" r:id="rId37"/>
-    <hyperlink ref="F16" r:id="rId38"/>
-    <hyperlink ref="E17" r:id="rId39"/>
-    <hyperlink ref="F17" r:id="rId40"/>
-    <hyperlink ref="G17" r:id="rId41"/>
-    <hyperlink ref="E18" r:id="rId42"/>
-    <hyperlink ref="F18" r:id="rId43"/>
-    <hyperlink ref="G18" r:id="rId44"/>
-    <hyperlink ref="E19" r:id="rId45"/>
-    <hyperlink ref="F19" r:id="rId46"/>
-    <hyperlink ref="E20" r:id="rId47"/>
-    <hyperlink ref="F20" r:id="rId48"/>
-    <hyperlink ref="E21" r:id="rId49"/>
-    <hyperlink ref="F21" r:id="rId50"/>
-    <hyperlink ref="G21" r:id="rId51"/>
-    <hyperlink ref="E22" r:id="rId52"/>
-    <hyperlink ref="F22" r:id="rId53" display="http://linkedin.com/in/shashwat-shukla-4a6a10198"/>
-    <hyperlink ref="E23" r:id="rId54"/>
-    <hyperlink ref="F23" r:id="rId55"/>
-    <hyperlink ref="G23" r:id="rId56"/>
-    <hyperlink ref="E24" r:id="rId57"/>
-    <hyperlink ref="F24" r:id="rId58"/>
-    <hyperlink ref="E25" r:id="rId59"/>
-    <hyperlink ref="F25" r:id="rId60"/>
-    <hyperlink ref="E26" r:id="rId61"/>
-    <hyperlink ref="F26" r:id="rId62"/>
-    <hyperlink ref="E27" r:id="rId63"/>
-    <hyperlink ref="F27" r:id="rId64"/>
-    <hyperlink ref="G27" r:id="rId65"/>
-    <hyperlink ref="E28" r:id="rId66"/>
-    <hyperlink ref="F28" r:id="rId67"/>
-    <hyperlink ref="E29" r:id="rId68"/>
-    <hyperlink ref="F29" r:id="rId69"/>
-    <hyperlink ref="E30" r:id="rId70"/>
-    <hyperlink ref="F30" r:id="rId71"/>
-    <hyperlink ref="G30" r:id="rId72"/>
-    <hyperlink ref="E31" r:id="rId73"/>
-    <hyperlink ref="F31" r:id="rId74"/>
-    <hyperlink ref="G31" r:id="rId75"/>
-    <hyperlink ref="G24" r:id="rId76"/>
-    <hyperlink ref="G28" r:id="rId77"/>
-    <hyperlink ref="G12" r:id="rId78"/>
-    <hyperlink ref="G19" r:id="rId79"/>
-    <hyperlink ref="G20" r:id="rId80"/>
-    <hyperlink ref="G25" r:id="rId81"/>
+    <hyperlink ref="E8" r:id="rId16"/>
+    <hyperlink ref="F8" r:id="rId17"/>
+    <hyperlink ref="E9" r:id="rId18"/>
+    <hyperlink ref="F9" r:id="rId19"/>
+    <hyperlink ref="E10" r:id="rId20"/>
+    <hyperlink ref="F10" r:id="rId21"/>
+    <hyperlink ref="G10" r:id="rId22"/>
+    <hyperlink ref="E11" r:id="rId23"/>
+    <hyperlink ref="F11" r:id="rId24"/>
+    <hyperlink ref="G11" r:id="rId25"/>
+    <hyperlink ref="E12" r:id="rId26"/>
+    <hyperlink ref="F12" r:id="rId27"/>
+    <hyperlink ref="G12" r:id="rId28"/>
+    <hyperlink ref="E13" r:id="rId29"/>
+    <hyperlink ref="F13" r:id="rId30"/>
+    <hyperlink ref="E14" r:id="rId31"/>
+    <hyperlink ref="F14" r:id="rId32"/>
+    <hyperlink ref="E15" r:id="rId33"/>
+    <hyperlink ref="F15" r:id="rId34"/>
+    <hyperlink ref="E16" r:id="rId35"/>
+    <hyperlink ref="F16" r:id="rId36"/>
+    <hyperlink ref="E17" r:id="rId37"/>
+    <hyperlink ref="F17" r:id="rId38"/>
+    <hyperlink ref="E18" r:id="rId39"/>
+    <hyperlink ref="F18" r:id="rId40"/>
+    <hyperlink ref="G18" r:id="rId41"/>
+    <hyperlink ref="E19" r:id="rId42"/>
+    <hyperlink ref="F19" r:id="rId43"/>
+    <hyperlink ref="G19" r:id="rId44"/>
+    <hyperlink ref="E21" r:id="rId45"/>
+    <hyperlink ref="F21" r:id="rId46"/>
+    <hyperlink ref="E22" r:id="rId47"/>
+    <hyperlink ref="F22" r:id="rId48"/>
+    <hyperlink ref="E23" r:id="rId49"/>
+    <hyperlink ref="F23" r:id="rId50"/>
+    <hyperlink ref="G23" r:id="rId51"/>
+    <hyperlink ref="E24" r:id="rId52"/>
+    <hyperlink ref="F24" r:id="rId53" display="http://linkedin.com/in/shashwat-shukla-4a6a10198"/>
+    <hyperlink ref="E25" r:id="rId54"/>
+    <hyperlink ref="F25" r:id="rId55"/>
+    <hyperlink ref="G25" r:id="rId56"/>
+    <hyperlink ref="E26" r:id="rId57"/>
+    <hyperlink ref="F26" r:id="rId58"/>
+    <hyperlink ref="E27" r:id="rId59"/>
+    <hyperlink ref="F27" r:id="rId60"/>
+    <hyperlink ref="E28" r:id="rId61"/>
+    <hyperlink ref="F28" r:id="rId62"/>
+    <hyperlink ref="E29" r:id="rId63"/>
+    <hyperlink ref="F29" r:id="rId64"/>
+    <hyperlink ref="E30" r:id="rId65"/>
+    <hyperlink ref="F30" r:id="rId66"/>
+    <hyperlink ref="E31" r:id="rId67"/>
+    <hyperlink ref="F31" r:id="rId68"/>
+    <hyperlink ref="E32" r:id="rId69"/>
+    <hyperlink ref="F32" r:id="rId70"/>
+    <hyperlink ref="G32" r:id="rId71"/>
+    <hyperlink ref="E33" r:id="rId72"/>
+    <hyperlink ref="F33" r:id="rId73"/>
+    <hyperlink ref="G33" r:id="rId74"/>
+    <hyperlink ref="G26" r:id="rId75"/>
+    <hyperlink ref="G30" r:id="rId76"/>
+    <hyperlink ref="G13" r:id="rId77"/>
+    <hyperlink ref="G21" r:id="rId78"/>
+    <hyperlink ref="G22" r:id="rId79"/>
+    <hyperlink ref="G27" r:id="rId80"/>
+    <hyperlink ref="H29" r:id="rId81"/>
     <hyperlink ref="G29" r:id="rId82"/>
+    <hyperlink ref="E20" r:id="rId83"/>
+    <hyperlink ref="F20" r:id="rId84"/>
+    <hyperlink ref="G20" r:id="rId85"/>
+    <hyperlink ref="E7" r:id="rId86"/>
+    <hyperlink ref="F7" r:id="rId87"/>
+    <hyperlink ref="G7" r:id="rId88"/>
+    <hyperlink ref="G31" r:id="rId89"/>
+    <hyperlink ref="H15" r:id="rId90"/>
+    <hyperlink ref="G15" r:id="rId91"/>
+    <hyperlink ref="G6" r:id="rId92"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId83"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId93"/>
 </worksheet>
 </file>
 

--- a/Sub-Heads_Contacts.xlsx
+++ b/Sub-Heads_Contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="190">
   <si>
     <t>https://drive.google.com/file/d/1v_coChDCYCD6bJm_ElILeeLAt_QvDIN9/view?usp=drivesdk</t>
   </si>
@@ -528,9 +528,6 @@
     <t>sindhu</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1RmFVUTcbAxOPJD-N_yjwOqcpiWn1gctA/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Sampara Sai Charan</t>
   </si>
   <si>
@@ -544,9 +541,6 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/sai-charan-sampara-a9a6591b4/</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pQnaeOtnmpvjilV-0lrmAq4XdZEIA-z_/view?usp=sharing</t>
   </si>
   <si>
     <t>CVSS Aditya</t>
@@ -564,9 +558,6 @@
     <t>https://www.linkedin.com/in/aditya-chennapragada-5842941b2</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1WMfqINfhvs_gONaBVn3gStITenmpek77/view?usp=drivesdk</t>
-  </si>
-  <si>
     <t>varshitha</t>
   </si>
   <si>
@@ -580,6 +571,21 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1UFRdmbEmYGKloouSfOi9DTExjAS2wzBt/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Nq1Br_wGjl32zEbL7ZNmE-SOWIdjlJAE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qiWL1AugPRrO5JCALXocv9H66UUkn8HY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>cvss</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1K5pFSS8BLkf1_YhwlnMEjHt0KJ1YZgic/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>sai charan</t>
   </si>
 </sst>
 </file>
@@ -997,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1256,7 @@
         <v>132</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1275,25 +1281,31 @@
     </row>
     <row r="7" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" s="10">
         <v>9542515223</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>182</v>
+      <c r="G7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1627,10 +1639,10 @@
         <v>90</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>94</v>
@@ -1723,7 +1735,7 @@
         <v>167</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1832,25 +1844,31 @@
     </row>
     <row r="20" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="D20" s="10">
         <v>6303637338</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>175</v>
+      <c r="G20" s="1" t="s">
+        <v>188</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>176</v>
+      <c r="H20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2233,13 +2251,13 @@
         <v>21</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2323,7 +2341,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -30558,21 +30576,17 @@
     <hyperlink ref="G21" r:id="rId78"/>
     <hyperlink ref="G22" r:id="rId79"/>
     <hyperlink ref="G27" r:id="rId80"/>
-    <hyperlink ref="H29" r:id="rId81"/>
-    <hyperlink ref="G29" r:id="rId82"/>
-    <hyperlink ref="E20" r:id="rId83"/>
-    <hyperlink ref="F20" r:id="rId84"/>
-    <hyperlink ref="G20" r:id="rId85"/>
-    <hyperlink ref="E7" r:id="rId86"/>
-    <hyperlink ref="F7" r:id="rId87"/>
-    <hyperlink ref="G7" r:id="rId88"/>
-    <hyperlink ref="G31" r:id="rId89"/>
-    <hyperlink ref="H15" r:id="rId90"/>
-    <hyperlink ref="G15" r:id="rId91"/>
-    <hyperlink ref="G6" r:id="rId92"/>
+    <hyperlink ref="E20" r:id="rId81"/>
+    <hyperlink ref="F20" r:id="rId82"/>
+    <hyperlink ref="E7" r:id="rId83"/>
+    <hyperlink ref="F7" r:id="rId84"/>
+    <hyperlink ref="G31" r:id="rId85"/>
+    <hyperlink ref="H15" r:id="rId86"/>
+    <hyperlink ref="G15" r:id="rId87"/>
+    <hyperlink ref="G6" r:id="rId88"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId93"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId89"/>
 </worksheet>
 </file>
 

--- a/Sub-Heads_Contacts.xlsx
+++ b/Sub-Heads_Contacts.xlsx
@@ -17,9 +17,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="190">
-  <si>
-    <t>https://drive.google.com/file/d/1v_coChDCYCD6bJm_ElILeeLAt_QvDIN9/view?usp=drivesdk</t>
-  </si>
   <si>
     <t>https://www.linkedin.com/in/vishal-sharma-8503391b4</t>
   </si>
@@ -587,6 +584,9 @@
   <si>
     <t>sai charan</t>
   </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uEV9GvPEmauN7w7-tEa5NhH9anxUyXAT/view?usp=sharing</t>
+  </si>
 </sst>
 </file>
 
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1021,25 +1021,25 @@
   <sheetData>
     <row r="1" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="2"/>
@@ -1064,25 +1064,25 @@
     </row>
     <row r="2" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="4">
         <v>8118822309</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1107,31 +1107,31 @@
     </row>
     <row r="3" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="4">
         <v>7869027425</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1154,25 +1154,25 @@
     </row>
     <row r="4" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="4">
         <v>8811869007</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1197,23 +1197,23 @@
     </row>
     <row r="5" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="4">
         <v>9660453903</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1238,25 +1238,25 @@
     </row>
     <row r="6" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="4">
         <v>9358361594</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1281,60 +1281,60 @@
     </row>
     <row r="7" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="D7" s="10">
         <v>9542515223</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>179</v>
+      <c r="G7" s="1" t="s">
+        <v>185</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="8" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="4">
         <v>9502834599</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1357,34 +1357,34 @@
     </row>
     <row r="9" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="4">
         <v>9500327733</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1406,25 +1406,25 @@
     </row>
     <row r="10" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="4">
         <v>9961751470</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1449,25 +1449,25 @@
     </row>
     <row r="11" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="4">
         <v>9030991777</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1492,25 +1492,25 @@
     </row>
     <row r="12" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="4">
         <v>8590409920</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1535,25 +1535,25 @@
     </row>
     <row r="13" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4">
         <v>7076195222</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1578,25 +1578,25 @@
     </row>
     <row r="14" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="4">
         <v>9550198600</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1621,31 +1621,31 @@
     </row>
     <row r="15" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4">
         <v>7034877530</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1668,25 +1668,25 @@
     </row>
     <row r="16" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="4">
         <v>6381729525</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1711,31 +1711,31 @@
     </row>
     <row r="17" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="4">
         <v>8462890029</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1758,25 +1758,25 @@
     </row>
     <row r="18" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4">
         <v>9390180656</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1801,25 +1801,25 @@
     </row>
     <row r="19" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="4">
         <v>8368297396</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1844,54 +1844,54 @@
     </row>
     <row r="20" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="D20" s="10">
         <v>6303637338</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>174</v>
+      <c r="G20" s="1" t="s">
+        <v>187</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="21" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4">
         <v>7584837111</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1916,25 +1916,25 @@
     </row>
     <row r="22" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1959,25 +1959,25 @@
     </row>
     <row r="23" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4">
         <v>9693468208</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2002,31 +2002,31 @@
     </row>
     <row r="24" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="4">
         <v>7479216228</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -2049,31 +2049,31 @@
     </row>
     <row r="25" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="4">
         <v>9284029278</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2096,31 +2096,31 @@
     </row>
     <row r="26" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="4">
         <v>8698792882</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -2143,25 +2143,25 @@
     </row>
     <row r="27" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="4">
         <v>7479175747</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2186,31 +2186,31 @@
     </row>
     <row r="28" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="4">
         <v>9352025031</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -2233,31 +2233,31 @@
     </row>
     <row r="29" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4">
         <v>9150660724</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2280,25 +2280,25 @@
     </row>
     <row r="30" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="4">
         <v>7479221800</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2323,25 +2323,25 @@
     </row>
     <row r="31" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4">
         <v>7580874791</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2366,25 +2366,25 @@
     </row>
     <row r="32" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="4">
         <v>8490082541</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2409,25 +2409,25 @@
     </row>
     <row r="33" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="4">
         <v>9672030996</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -30569,24 +30569,23 @@
     <hyperlink ref="G32" r:id="rId71"/>
     <hyperlink ref="E33" r:id="rId72"/>
     <hyperlink ref="F33" r:id="rId73"/>
-    <hyperlink ref="G33" r:id="rId74"/>
-    <hyperlink ref="G26" r:id="rId75"/>
-    <hyperlink ref="G30" r:id="rId76"/>
-    <hyperlink ref="G13" r:id="rId77"/>
-    <hyperlink ref="G21" r:id="rId78"/>
-    <hyperlink ref="G22" r:id="rId79"/>
-    <hyperlink ref="G27" r:id="rId80"/>
-    <hyperlink ref="E20" r:id="rId81"/>
-    <hyperlink ref="F20" r:id="rId82"/>
-    <hyperlink ref="E7" r:id="rId83"/>
-    <hyperlink ref="F7" r:id="rId84"/>
-    <hyperlink ref="G31" r:id="rId85"/>
-    <hyperlink ref="H15" r:id="rId86"/>
-    <hyperlink ref="G15" r:id="rId87"/>
-    <hyperlink ref="G6" r:id="rId88"/>
+    <hyperlink ref="G26" r:id="rId74"/>
+    <hyperlink ref="G30" r:id="rId75"/>
+    <hyperlink ref="G13" r:id="rId76"/>
+    <hyperlink ref="G21" r:id="rId77"/>
+    <hyperlink ref="G22" r:id="rId78"/>
+    <hyperlink ref="G27" r:id="rId79"/>
+    <hyperlink ref="E20" r:id="rId80"/>
+    <hyperlink ref="F20" r:id="rId81"/>
+    <hyperlink ref="E7" r:id="rId82"/>
+    <hyperlink ref="F7" r:id="rId83"/>
+    <hyperlink ref="G31" r:id="rId84"/>
+    <hyperlink ref="H15" r:id="rId85"/>
+    <hyperlink ref="G15" r:id="rId86"/>
+    <hyperlink ref="G6" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId89"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId88"/>
 </worksheet>
 </file>
 

--- a/Sub-Heads_Contacts.xlsx
+++ b/Sub-Heads_Contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="192">
   <si>
     <t>https://www.linkedin.com/in/vishal-sharma-8503391b4</t>
   </si>
@@ -587,6 +587,12 @@
   <si>
     <t>https://drive.google.com/file/d/1uEV9GvPEmauN7w7-tEa5NhH9anxUyXAT/view?usp=sharing</t>
   </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mNmE3t5-5_hq5TJIlrr-XWhmcfCiLnLF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Tanish</t>
+  </si>
 </sst>
 </file>
 
@@ -1003,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2141,7 +2147,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -2161,10 +2167,14 @@
         <v>32</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -30574,18 +30584,17 @@
     <hyperlink ref="G13" r:id="rId76"/>
     <hyperlink ref="G21" r:id="rId77"/>
     <hyperlink ref="G22" r:id="rId78"/>
-    <hyperlink ref="G27" r:id="rId79"/>
-    <hyperlink ref="E20" r:id="rId80"/>
-    <hyperlink ref="F20" r:id="rId81"/>
-    <hyperlink ref="E7" r:id="rId82"/>
-    <hyperlink ref="F7" r:id="rId83"/>
-    <hyperlink ref="G31" r:id="rId84"/>
-    <hyperlink ref="H15" r:id="rId85"/>
-    <hyperlink ref="G15" r:id="rId86"/>
-    <hyperlink ref="G6" r:id="rId87"/>
+    <hyperlink ref="E20" r:id="rId79"/>
+    <hyperlink ref="F20" r:id="rId80"/>
+    <hyperlink ref="E7" r:id="rId81"/>
+    <hyperlink ref="F7" r:id="rId82"/>
+    <hyperlink ref="G31" r:id="rId83"/>
+    <hyperlink ref="H15" r:id="rId84"/>
+    <hyperlink ref="G15" r:id="rId85"/>
+    <hyperlink ref="G6" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId88"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId87"/>
 </worksheet>
 </file>
 

--- a/Sub-Heads_Contacts.xlsx
+++ b/Sub-Heads_Contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="195">
   <si>
     <t>https://www.linkedin.com/in/vishal-sharma-8503391b4</t>
   </si>
@@ -593,6 +593,15 @@
   <si>
     <t>Tanish</t>
   </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lPqFfNQhxuAN79NOMi324IRMkI2MUq_5/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>sarthak</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GBpY_Ek9q9I-nw6hahme9qgf-ykZU3Xr/view?usp=sharing</t>
+  </si>
 </sst>
 </file>
 
@@ -1009,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1877,7 +1886,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -1897,10 +1906,14 @@
         <v>64</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1940,7 +1953,7 @@
         <v>59</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -30582,19 +30595,17 @@
     <hyperlink ref="G26" r:id="rId74"/>
     <hyperlink ref="G30" r:id="rId75"/>
     <hyperlink ref="G13" r:id="rId76"/>
-    <hyperlink ref="G21" r:id="rId77"/>
-    <hyperlink ref="G22" r:id="rId78"/>
-    <hyperlink ref="E20" r:id="rId79"/>
-    <hyperlink ref="F20" r:id="rId80"/>
-    <hyperlink ref="E7" r:id="rId81"/>
-    <hyperlink ref="F7" r:id="rId82"/>
-    <hyperlink ref="G31" r:id="rId83"/>
-    <hyperlink ref="H15" r:id="rId84"/>
-    <hyperlink ref="G15" r:id="rId85"/>
-    <hyperlink ref="G6" r:id="rId86"/>
+    <hyperlink ref="E20" r:id="rId77"/>
+    <hyperlink ref="F20" r:id="rId78"/>
+    <hyperlink ref="E7" r:id="rId79"/>
+    <hyperlink ref="F7" r:id="rId80"/>
+    <hyperlink ref="G31" r:id="rId81"/>
+    <hyperlink ref="H15" r:id="rId82"/>
+    <hyperlink ref="G15" r:id="rId83"/>
+    <hyperlink ref="G6" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId87"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId85"/>
 </worksheet>
 </file>
 
